--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7774516B-A8F2-499A-A89F-58D2122B2136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D533483-523B-4B77-8F45-1E342F908A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D533483-523B-4B77-8F45-1E342F908A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72573E16-0B1A-4202-8CC8-21C60FD68157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>''</t>
   </si>
@@ -149,12 +149,6 @@
     <t>FUNC_IF</t>
   </si>
   <si>
-    <t>return AFTER_RET</t>
-  </si>
-  <si>
-    <t>AFTER_RET</t>
-  </si>
-  <si>
     <t>while EXP { FUNC_STMT_LIST }</t>
   </si>
   <si>
@@ -206,40 +200,34 @@
     <t>ALL_AFTER_ID</t>
   </si>
   <si>
-    <t>( IN_P_LIST )</t>
-  </si>
-  <si>
-    <t>IN_P_LIST</t>
-  </si>
-  <si>
-    <t>IN_PARAM</t>
-  </si>
-  <si>
-    <t>D_TYPE IN_SEP</t>
-  </si>
-  <si>
-    <t>VAL</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>TERM</t>
-  </si>
-  <si>
-    <t>id TERM IN_SEP</t>
-  </si>
-  <si>
-    <t>: VAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN_SEP </t>
-  </si>
-  <si>
-    <t>, IN_PARAM</t>
-  </si>
-  <si>
     <t>::=</t>
+  </si>
+  <si>
+    <t>FUNC_CALL</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>return EXP</t>
   </si>
 </sst>
 </file>
@@ -598,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835BFAF-D074-4BDD-982D-B1F687DAD0F9}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +607,7 @@
         <v>::=</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -630,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B63" si="0">$I$2</f>
+        <f t="shared" ref="B2:B64" si="0">$I$2</f>
         <v>::=</v>
       </c>
       <c r="C2" t="str">
@@ -638,7 +626,7 @@
         <v>''</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,7 +686,7 @@
         <v>::=</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -966,7 +954,7 @@
         <v>::=</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1015,7 @@
         <v>::=</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,49 +1039,49 @@
         <v>::=</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C38" t="str">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C39" t="str">
         <f>I1</f>
         <v>''</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C39" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -1111,9 +1099,8 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C41" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C41" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,38 +1117,39 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C43" t="s">
         <v>43</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C45" t="s">
-        <v>45</v>
+      <c r="C45" t="str">
+        <f>I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1173,7 +1161,7 @@
         <v>::=</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1184,45 +1172,44 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C47" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C47" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C48" t="s">
         <v>48</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1233,155 +1220,104 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C51" t="s">
-        <v>54</v>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>17</v>
+      <c r="C53" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C54" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C54" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C58" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C58" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C59" t="s">
         <v>62</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C62" t="str">
-        <f>I1</f>
-        <v>''</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C63" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72573E16-0B1A-4202-8CC8-21C60FD68157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80487397-99B6-47BF-82D4-6081B6FFEB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>FUNC_STMT_LIST</t>
   </si>
   <si>
-    <t>func id ( P_LIST ) RET_TYPE { FUNC_STMT_LIST }</t>
-  </si>
-  <si>
     <t>FUNC_STMT</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>return EXP</t>
+  </si>
+  <si>
+    <t>func func_id ( P_LIST ) RET_TYPE { FUNC_STMT_LIST }</t>
   </si>
 </sst>
 </file>
@@ -588,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835BFAF-D074-4BDD-982D-B1F687DAD0F9}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
         <v>::=</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -618,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B64" si="0">$I$2</f>
+        <f t="shared" ref="B2:B59" si="0">$I$2</f>
         <v>::=</v>
       </c>
       <c r="C2" t="str">
@@ -626,7 +626,7 @@
         <v>''</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>::=</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -855,7 +855,7 @@
         <v>::=</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>::=</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,7 +972,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -984,91 +984,91 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -1081,38 +1081,38 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C40" t="s">
         <v>39</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C40" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C42" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,24 +1124,24 @@
         <v>::=</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C44" t="s">
         <v>44</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C44" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -1166,14 +1166,14 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C47" t="s">
         <v>46</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1185,36 +1185,36 @@
         <v>::=</v>
       </c>
       <c r="C48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C49" t="s">
         <v>51</v>
-      </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C49" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
@@ -1226,14 +1226,14 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C52" t="s">
         <v>56</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C52" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>::=</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>::=</v>
       </c>
       <c r="C54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>::=</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>::=</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>::=</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>::=</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,7 +1317,7 @@
         <v>::=</v>
       </c>
       <c r="C59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80487397-99B6-47BF-82D4-6081B6FFEB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC835F6E-9D1F-49CE-827D-C48D45D43272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
   <si>
     <t>''</t>
   </si>
@@ -586,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835BFAF-D074-4BDD-982D-B1F687DAD0F9}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B59" si="0">$I$2</f>
+        <f t="shared" ref="B2:B58" si="0">$I$2</f>
         <v>::=</v>
       </c>
       <c r="C2" t="str">
@@ -763,14 +763,14 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
+      <c r="C14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>::=</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,7 +794,7 @@
         <v>::=</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,19 +806,20 @@
         <v>::=</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C18" t="s">
-        <v>22</v>
+      <c r="C18" t="str">
+        <f xml:space="preserve"> I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,33 +830,32 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C19" t="str">
-        <f xml:space="preserve"> I1</f>
-        <v>''</v>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
+      <c r="C20" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,33 +866,34 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
+      <c r="C22" t="str">
+        <f xml:space="preserve"> I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C23" t="str">
-        <f xml:space="preserve"> I1</f>
-        <v>''</v>
+      <c r="C23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
+      <c r="C24" t="str">
+        <f>I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,21 +904,21 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C25" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C26" t="s">
-        <v>28</v>
+      <c r="C26" t="str">
+        <f xml:space="preserve"> I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,21 +929,20 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C27" t="str">
-        <f xml:space="preserve"> I1</f>
-        <v>''</v>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>30</v>
+      <c r="C28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,21 +953,21 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C29" t="s">
-        <v>49</v>
+      <c r="C29" t="str">
+        <f>I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C30" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C30" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>::=</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>::=</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>::=</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,55 +1015,56 @@
         <v>::=</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C38" t="s">
-        <v>37</v>
+      <c r="C38" t="str">
+        <f>I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,21 +1075,20 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C39" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C39" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1100,31 +1100,31 @@
         <v>::=</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,21 +1135,21 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C44" t="s">
-        <v>44</v>
+      <c r="C44" t="str">
+        <f>I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C45" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C45" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,43 +1161,43 @@
         <v>::=</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1208,32 +1208,32 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C50" t="s">
-        <v>55</v>
+      <c r="C50" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>17</v>
+      <c r="C51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,7 +1245,7 @@
         <v>::=</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>::=</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>::=</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>::=</v>
       </c>
       <c r="C56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1293,7 +1293,7 @@
         <v>::=</v>
       </c>
       <c r="C57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,18 +1305,6 @@
         <v>::=</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C59" t="s">
         <v>61</v>
       </c>
     </row>

--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7774516B-A8F2-499A-A89F-58D2122B2136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DC47AF-1785-4520-B8F1-B14E97C6B61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>''</t>
   </si>
@@ -86,9 +86,6 @@
     <t>: D_TYPE R_FLEX</t>
   </si>
   <si>
-    <t>R_RIGID</t>
-  </si>
-  <si>
     <t>= EXP</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>FUNC_STMT_LIST</t>
   </si>
   <si>
-    <t>func id ( P_LIST ) RET_TYPE { FUNC_STMT_LIST }</t>
-  </si>
-  <si>
     <t>FUNC_STMT</t>
   </si>
   <si>
@@ -149,12 +143,6 @@
     <t>FUNC_IF</t>
   </si>
   <si>
-    <t>return AFTER_RET</t>
-  </si>
-  <si>
-    <t>AFTER_RET</t>
-  </si>
-  <si>
     <t>while EXP { FUNC_STMT_LIST }</t>
   </si>
   <si>
@@ -206,40 +194,37 @@
     <t>ALL_AFTER_ID</t>
   </si>
   <si>
-    <t>( IN_P_LIST )</t>
-  </si>
-  <si>
-    <t>IN_P_LIST</t>
-  </si>
-  <si>
-    <t>IN_PARAM</t>
-  </si>
-  <si>
-    <t>D_TYPE IN_SEP</t>
-  </si>
-  <si>
-    <t>VAL</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
-    <t>TERM</t>
-  </si>
-  <si>
-    <t>id TERM IN_SEP</t>
-  </si>
-  <si>
-    <t>: VAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN_SEP </t>
-  </si>
-  <si>
-    <t>, IN_PARAM</t>
-  </si>
-  <si>
     <t>::=</t>
+  </si>
+  <si>
+    <t>FUNC_CALL</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>return EXP</t>
+  </si>
+  <si>
+    <t>func func_id ( P_LIST ) RET_TYPE { FUNC_STMT_LIST }</t>
   </si>
 </sst>
 </file>
@@ -598,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835BFAF-D074-4BDD-982D-B1F687DAD0F9}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +604,7 @@
         <v>::=</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -630,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B63" si="0">$I$2</f>
+        <f t="shared" ref="B2:B58" si="0">$I$2</f>
         <v>::=</v>
       </c>
       <c r="C2" t="str">
@@ -638,7 +623,7 @@
         <v>''</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,7 +683,7 @@
         <v>::=</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -769,25 +754,25 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
+      <c r="C14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -799,7 +784,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -811,7 +796,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -823,63 +808,64 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C18" t="s">
-        <v>22</v>
+      <c r="C18" t="str">
+        <f xml:space="preserve"> I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C19" t="str">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C22" t="str">
         <f xml:space="preserve"> I1</f>
         <v>''</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,9 +876,8 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C23" t="str">
-        <f xml:space="preserve"> I1</f>
-        <v>''</v>
+      <c r="C23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,70 +888,71 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C24" t="s">
-        <v>27</v>
+      <c r="C24" t="str">
+        <f>I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C26" t="str">
+        <f xml:space="preserve"> I1</f>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C29" t="str">
         <f>I1</f>
         <v>''</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C27" t="str">
-        <f xml:space="preserve"> I1</f>
-        <v>''</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -977,98 +963,97 @@
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C30" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C30" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C32" t="s">
         <v>33</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -1081,202 +1066,200 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C42" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C41" t="str">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C44" t="str">
         <f>I1</f>
         <v>''</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C44" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C45" t="s">
         <v>8</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C45" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C47" t="s">
         <v>46</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C47" t="str">
-        <f>I1</f>
-        <v>''</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C50" t="s">
-        <v>50</v>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>17</v>
+      <c r="C53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C54" t="s">
         <v>57</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C54" t="str">
-        <f>I1</f>
-        <v>''</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
@@ -1288,7 +1271,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
@@ -1300,88 +1283,26 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C58" t="str">
-        <f>I1</f>
-        <v>''</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C59" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C58" t="s">
         <v>60</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C62" t="str">
-        <f>I1</f>
-        <v>''</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C63" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC835F6E-9D1F-49CE-827D-C48D45D43272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B68F93B-B76B-4BE8-A3E2-133E442B1FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>''</t>
   </si>
@@ -149,9 +149,6 @@
     <t>while EXP { FUNC_STMT_LIST }</t>
   </si>
   <si>
-    <t>if EXP { FUNC_STMT_LIST } FUNC_ELSE_CLAUSE</t>
-  </si>
-  <si>
     <t>FUNC_ELSE_CLAUSE</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>{ FUNC_STMT_LIST }</t>
   </si>
   <si>
-    <t>if EXP { STMT_LIST } ELSE_CLAUSE</t>
-  </si>
-  <si>
     <t>ELSE_CLAUSE</t>
   </si>
   <si>
@@ -228,6 +222,30 @@
   </si>
   <si>
     <t>func func_id ( P_LIST ) RET_TYPE { FUNC_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>IF_COND</t>
+  </si>
+  <si>
+    <t>let id</t>
+  </si>
+  <si>
+    <t>if IF_COND { FUNC_STMT_LIST } FUNC_ELSE_CLAUSE</t>
+  </si>
+  <si>
+    <t>if IF_COND { STMT_LIST } ELSE_CLAUSE</t>
+  </si>
+  <si>
+    <t>Bool_Ni</t>
+  </si>
+  <si>
+    <t>Double_Nil</t>
+  </si>
+  <si>
+    <t>Int_Nil</t>
+  </si>
+  <si>
+    <t>String_Nil</t>
   </si>
 </sst>
 </file>
@@ -586,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835BFAF-D074-4BDD-982D-B1F687DAD0F9}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +625,7 @@
         <v>::=</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
@@ -618,7 +636,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B58" si="0">$I$2</f>
+        <f t="shared" ref="B2:B64" si="0">$I$2</f>
         <v>::=</v>
       </c>
       <c r="C2" t="str">
@@ -626,7 +644,7 @@
         <v>''</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -686,7 +704,7 @@
         <v>::=</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -811,56 +829,55 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C18" t="str">
-        <f xml:space="preserve"> I1</f>
-        <v>''</v>
+      <c r="C18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
+      <c r="C19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -873,44 +890,43 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C23" t="s">
-        <v>27</v>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C24" t="str">
-        <f>I1</f>
-        <v>''</v>
+      <c r="C24" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -923,87 +939,89 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>30</v>
+      <c r="C27" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C28" t="s">
-        <v>49</v>
+      <c r="C28" t="str">
+        <f>I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C30" t="str">
+        <f xml:space="preserve"> I1</f>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C29" t="str">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C33" t="str">
         <f>I1</f>
         <v>''</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,261 +1033,261 @@
         <v>::=</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C35" t="s">
         <v>33</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C35" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C36" t="s">
         <v>34</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C38" t="str">
+      <c r="C38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C42" t="str">
         <f>I1</f>
         <v>''</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C42" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C44" t="str">
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C48" t="str">
         <f>I1</f>
         <v>''</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>9</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>17</v>
+      <c r="C50" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C54" t="s">
-        <v>58</v>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,7 +1299,7 @@
         <v>::=</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1293,7 +1311,7 @@
         <v>::=</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,7 +1323,79 @@
         <v>::=</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B68F93B-B76B-4BE8-A3E2-133E442B1FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD829F03-F0F9-4A2A-BC9C-7E06016BA7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>''</t>
   </si>
@@ -185,21 +185,12 @@
     <t>LOAD_ID</t>
   </si>
   <si>
-    <t>id ALL_AFTER_ID</t>
-  </si>
-  <si>
-    <t>ALL_AFTER_ID</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>::=</t>
   </si>
   <si>
-    <t>FUNC_CALL</t>
-  </si>
-  <si>
     <t>(</t>
   </si>
   <si>
@@ -246,6 +237,12 @@
   </si>
   <si>
     <t>String_Nil</t>
+  </si>
+  <si>
+    <t>id = EXP</t>
+  </si>
+  <si>
+    <t>func_id</t>
   </si>
 </sst>
 </file>
@@ -604,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835BFAF-D074-4BDD-982D-B1F687DAD0F9}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B64" si="0">$I$2</f>
+        <f t="shared" ref="B2:B62" si="0">$I$2</f>
         <v>::=</v>
       </c>
       <c r="C2" t="str">
@@ -644,7 +641,7 @@
         <v>''</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -836,7 +833,7 @@
         <v>::=</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,7 +845,7 @@
         <v>::=</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,7 +857,7 @@
         <v>::=</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +869,7 @@
         <v>::=</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,7 +906,7 @@
         <v>::=</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1093,7 +1090,7 @@
         <v>::=</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,7 +1114,7 @@
         <v>::=</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1178,7 +1175,7 @@
         <v>::=</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,43 +1248,43 @@
         <v>::=</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C53" t="s">
-        <v>53</v>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>17</v>
+      <c r="C54" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1299,7 +1296,7 @@
         <v>::=</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,7 +1308,7 @@
         <v>::=</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1323,7 +1320,7 @@
         <v>::=</v>
       </c>
       <c r="C58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1335,7 +1332,7 @@
         <v>::=</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,55 +1344,31 @@
         <v>::=</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C61" t="s">
         <v>7</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C61" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD829F03-F0F9-4A2A-BC9C-7E06016BA7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52229861-CEB6-4AD4-948D-A4012D0CDC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
   <si>
     <t>''</t>
   </si>
@@ -170,12 +170,6 @@
     <t>AFTER_ELSE</t>
   </si>
   <si>
-    <t>{ STMT_LIST }</t>
-  </si>
-  <si>
-    <t>while EXP { STMT_LIST }</t>
-  </si>
-  <si>
     <t>STMT_LIST eof</t>
   </si>
   <si>
@@ -224,9 +218,6 @@
     <t>if IF_COND { FUNC_STMT_LIST } FUNC_ELSE_CLAUSE</t>
   </si>
   <si>
-    <t>if IF_COND { STMT_LIST } ELSE_CLAUSE</t>
-  </si>
-  <si>
     <t>Bool_Ni</t>
   </si>
   <si>
@@ -243,13 +234,40 @@
   </si>
   <si>
     <t>func_id</t>
+  </si>
+  <si>
+    <t>LOCAL_STMT_LIST</t>
+  </si>
+  <si>
+    <t>LOCAL_STMT LOCAL_STMT_LIST</t>
+  </si>
+  <si>
+    <t>LOCAL_STMT</t>
+  </si>
+  <si>
+    <t>{ LOCAL_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>while EXP { LOCAL_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>if IF_COND { LOCAL_STMT_LIST } ELSE_CLAUSE</t>
+  </si>
+  <si>
+    <t>FUNC_ELSE_IF</t>
+  </si>
+  <si>
+    <t>ELSE_IF_STMT</t>
+  </si>
+  <si>
+    <t>if EXP { LOCAL_STMT_LIST } ELSE_CLAUSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +280,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,9 +314,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,774 +635,873 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835BFAF-D074-4BDD-982D-B1F687DAD0F9}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="55.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="str">
+      <c r="B1" s="1" t="str">
         <f>$I$2</f>
         <v>::=</v>
       </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:B62" si="0">$I$2</f>
-        <v>::=</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="B2" s="1" t="str">
+        <f t="shared" ref="B2:B65" si="0">$I$2</f>
+        <v>::=</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <f>I1</f>
         <v>''</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>50</v>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
+      <c r="B7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
-    </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C22" t="str">
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C22" s="1" t="str">
         <f xml:space="preserve"> I1</f>
         <v>''</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C26" t="str">
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C26" s="1" t="str">
         <f xml:space="preserve"> I1</f>
         <v>''</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C28" t="str">
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C28" s="1" t="str">
         <f>I1</f>
         <v>''</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C30" t="str">
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C30" s="1" t="str">
         <f xml:space="preserve"> I1</f>
         <v>''</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C32" t="s">
-        <v>47</v>
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C33" t="str">
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C33" s="1" t="str">
         <f>I1</f>
         <v>''</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C37" t="s">
-        <v>48</v>
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C42" t="str">
+      <c r="B42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C42" s="1" t="str">
         <f>I1</f>
         <v>''</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C44" t="s">
-        <v>35</v>
+      <c r="B44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C46" t="s">
-        <v>62</v>
+      <c r="B46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C48" t="str">
+      <c r="B48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C48" s="1" t="str">
         <f>I1</f>
         <v>''</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>I1</f>
+        <v>''</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" ref="B66:B70" si="1">$I$2</f>
+        <v>::=</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>::=</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>::=</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C56" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C57" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C58" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C59" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>::=</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C62" t="s">
-        <v>60</v>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>::=</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52229861-CEB6-4AD4-948D-A4012D0CDC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055FD988-624E-4DA3-AB73-1FB25B6427A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t>''</t>
   </si>
@@ -179,28 +179,7 @@
     <t>LOAD_ID</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>::=</t>
-  </si>
-  <si>
-    <t>(</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>exp</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>!</t>
   </si>
   <si>
     <t>return EXP</t>
@@ -635,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835BFAF-D074-4BDD-982D-B1F687DAD0F9}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B65" si="0">$I$2</f>
+        <f t="shared" ref="B2:B58" si="0">$I$2</f>
         <v>::=</v>
       </c>
       <c r="C2" s="1" t="str">
@@ -677,7 +656,7 @@
         <v>''</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -869,7 +848,7 @@
         <v>::=</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,7 +860,7 @@
         <v>::=</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -893,7 +872,7 @@
         <v>::=</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +884,7 @@
         <v>::=</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,7 +921,7 @@
         <v>::=</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,7 +1105,7 @@
         <v>::=</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,7 +1129,7 @@
         <v>::=</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,7 +1166,7 @@
         <v>::=</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1211,7 +1190,7 @@
         <v>::=</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1227,7 @@
         <v>::=</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,7 +1239,7 @@
         <v>::=</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,7 +1251,7 @@
         <v>::=</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,7 +1263,7 @@
         <v>::=</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1296,115 +1275,116 @@
         <v>::=</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="B57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>52</v>
+      <c r="C57" s="1" t="str">
+        <f>I1</f>
+        <v>''</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>53</v>
+      <c r="C58" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>49</v>
+        <f t="shared" ref="B59:B63" si="1">$I$2</f>
+        <v>::=</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>54</v>
+        <f t="shared" si="1"/>
+        <v>::=</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>::=</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>::=</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,96 +1392,11 @@
         <v>66</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C63" s="1" t="s">
+        <f t="shared" si="1"/>
+        <v>::=</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C64" s="1" t="str">
-        <f>I1</f>
-        <v>''</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="1" t="str">
-        <f t="shared" ref="B66:B70" si="1">$I$2</f>
-        <v>::=</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>::=</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>::=</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>::=</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>::=</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ll_grammar.xlsx
+++ b/doc/ll_grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programovani\VUT\BIT2\IFJ\compilerIFJ23\ifj-projekt\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055FD988-624E-4DA3-AB73-1FB25B6427A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E3003D-8EFF-430B-8DCE-18F69D0B9165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E1A4EF7F-483A-4F6F-9272-5E87C3ECC0F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="147">
   <si>
     <t>''</t>
   </si>
@@ -59,9 +59,6 @@
     <t>DEF_FUNC</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>IF_STMT</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>R_RIGID</t>
   </si>
   <si>
-    <t>= EXP</t>
-  </si>
-  <si>
     <t>D_TYPE</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>FUNC_IF</t>
   </si>
   <si>
-    <t>while EXP { FUNC_STMT_LIST }</t>
-  </si>
-  <si>
     <t>FUNC_ELSE_CLAUSE</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
     <t>::=</t>
   </si>
   <si>
-    <t>return EXP</t>
-  </si>
-  <si>
     <t>func func_id ( P_LIST ) RET_TYPE { FUNC_STMT_LIST }</t>
   </si>
   <si>
@@ -209,9 +197,6 @@
     <t>String_Nil</t>
   </si>
   <si>
-    <t>id = EXP</t>
-  </si>
-  <si>
     <t>func_id</t>
   </si>
   <si>
@@ -227,9 +212,6 @@
     <t>{ LOCAL_STMT_LIST }</t>
   </si>
   <si>
-    <t>while EXP { LOCAL_STMT_LIST }</t>
-  </si>
-  <si>
     <t>if IF_COND { LOCAL_STMT_LIST } ELSE_CLAUSE</t>
   </si>
   <si>
@@ -239,7 +221,262 @@
     <t>ELSE_IF_STMT</t>
   </si>
   <si>
-    <t>if EXP { LOCAL_STMT_LIST } ELSE_CLAUSE</t>
+    <t>$</t>
+  </si>
+  <si>
+    <t>eof</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>func</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>START ::= STMT_LIST eof</t>
+  </si>
+  <si>
+    <t>STMT_LIST ::= ε</t>
+  </si>
+  <si>
+    <t>STMT_LIST ::= STMT STMT_LIST</t>
+  </si>
+  <si>
+    <t>STMT ::= LOAD_ID</t>
+  </si>
+  <si>
+    <t>STMT ::= VAR_LET</t>
+  </si>
+  <si>
+    <t>STMT ::= DEF_FUNC</t>
+  </si>
+  <si>
+    <t>STMT ::= WHILE_STMT</t>
+  </si>
+  <si>
+    <t>STMT ::= IF_STMT</t>
+  </si>
+  <si>
+    <t>VAR_LET ::= VAR_SCOPE id TYPE_AND_ASSIGN</t>
+  </si>
+  <si>
+    <t>VAR_SCOPE ::= var</t>
+  </si>
+  <si>
+    <t>VAR_SCOPE ::= let</t>
+  </si>
+  <si>
+    <t>TYPE_AND_ASSIGN ::= : D_TYPE R_FLEX</t>
+  </si>
+  <si>
+    <t>TYPE_AND_ASSIGN ::= R_RIGID</t>
+  </si>
+  <si>
+    <t>D_TYPE ::= Bool</t>
+  </si>
+  <si>
+    <t>D_TYPE ::= Double</t>
+  </si>
+  <si>
+    <t>D_TYPE ::= Int</t>
+  </si>
+  <si>
+    <t>D_TYPE ::= String</t>
+  </si>
+  <si>
+    <t>D_TYPE ::= Bool_Ni</t>
+  </si>
+  <si>
+    <t>D_TYPE ::= Double_Nil</t>
+  </si>
+  <si>
+    <t>D_TYPE ::= Int_Nil</t>
+  </si>
+  <si>
+    <t>D_TYPE ::= String_Nil</t>
+  </si>
+  <si>
+    <t>R_FLEX ::= ε</t>
+  </si>
+  <si>
+    <t>DEF_FUNC ::= func func_id ( P_LIST ) RET_TYPE { FUNC_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>P_LIST ::= PARAM</t>
+  </si>
+  <si>
+    <t>P_LIST ::= ε</t>
+  </si>
+  <si>
+    <t>PARAM ::= id id : D_TYPE P_SEP</t>
+  </si>
+  <si>
+    <t>P_SEP ::= ε</t>
+  </si>
+  <si>
+    <t>P_SEP ::= , PARAM</t>
+  </si>
+  <si>
+    <t>RET_TYPE ::= ε</t>
+  </si>
+  <si>
+    <t>RET_TYPE ::= -&gt; D_TYPE</t>
+  </si>
+  <si>
+    <t>FUNC_STMT_LIST ::= FUNC_STMT FUNC_STMT_LIST</t>
+  </si>
+  <si>
+    <t>FUNC_STMT_LIST ::= ε</t>
+  </si>
+  <si>
+    <t>FUNC_STMT ::= LOAD_ID</t>
+  </si>
+  <si>
+    <t>FUNC_STMT ::= VAR_LET</t>
+  </si>
+  <si>
+    <t>FUNC_STMT ::= RET</t>
+  </si>
+  <si>
+    <t>FUNC_STMT ::= FUNC_WHILE</t>
+  </si>
+  <si>
+    <t>FUNC_STMT ::= FUNC_IF</t>
+  </si>
+  <si>
+    <t>FUNC_IF ::= if IF_COND { FUNC_STMT_LIST } FUNC_ELSE_CLAUSE</t>
+  </si>
+  <si>
+    <t>FUNC_ELSE_CLAUSE ::= ε</t>
+  </si>
+  <si>
+    <t>FUNC_ELSE_CLAUSE ::= else FUNC_AFTER_ELSE</t>
+  </si>
+  <si>
+    <t>FUNC_AFTER_ELSE ::= { FUNC_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>FUNC_AFTER_ELSE ::= FUNC_ELSE_IF</t>
+  </si>
+  <si>
+    <t>IF_STMT ::= if IF_COND { LOCAL_STMT_LIST } ELSE_CLAUSE</t>
+  </si>
+  <si>
+    <t>ELSE_CLAUSE ::= ε</t>
+  </si>
+  <si>
+    <t>ELSE_CLAUSE ::= else AFTER_ELSE</t>
+  </si>
+  <si>
+    <t>AFTER_ELSE ::= { LOCAL_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>AFTER_ELSE ::= ELSE_IF_STMT</t>
+  </si>
+  <si>
+    <t>LOAD_ID ::= func_id</t>
+  </si>
+  <si>
+    <t>IF_COND ::= let id</t>
+  </si>
+  <si>
+    <t>LOCAL_STMT_LIST ::= LOCAL_STMT LOCAL_STMT_LIST</t>
+  </si>
+  <si>
+    <t>LOCAL_STMT_LIST ::= ε</t>
+  </si>
+  <si>
+    <t>LOCAL_STMT ::= LOAD_ID</t>
+  </si>
+  <si>
+    <t>LOCAL_STMT ::= VAR_LET</t>
+  </si>
+  <si>
+    <t>LOCAL_STMT ::= WHILE_STMT</t>
+  </si>
+  <si>
+    <t>LOCAL_STMT ::= IF_STMT</t>
+  </si>
+  <si>
+    <t>FUNC_ELSE_IF ::= if IF_COND { FUNC_STMT_LIST } FUNC_ELSE_CLAUSE</t>
+  </si>
+  <si>
+    <t>= exp</t>
+  </si>
+  <si>
+    <t>return exp</t>
+  </si>
+  <si>
+    <t>while exp { FUNC_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>while exp { LOCAL_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>id = exp</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>if exp { LOCAL_STMT_LIST } ELSE_CLAUSE</t>
+  </si>
+  <si>
+    <t>R_FLEX ::= = exp</t>
+  </si>
+  <si>
+    <t>RET ::= return exp</t>
+  </si>
+  <si>
+    <t>FUNC_WHILE ::= while exp { FUNC_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>WHILE_STMT ::= while exp { LOCAL_STMT_LIST }</t>
+  </si>
+  <si>
+    <t>LOAD_ID ::= id = exp</t>
+  </si>
+  <si>
+    <t>IF_COND ::= exp</t>
+  </si>
+  <si>
+    <t>ELSE_IF_STMT ::= if exp { LOCAL_STMT_LIST } ELSE_CLAUSE</t>
   </si>
 </sst>
 </file>
@@ -614,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9835BFAF-D074-4BDD-982D-B1F687DAD0F9}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:AO129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="S62" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V62" sqref="V1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +862,35 @@
     <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="55.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="1"/>
+    <col min="31" max="31" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="1.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="46.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="63.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -637,7 +902,7 @@
         <v>::=</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>0</v>
@@ -656,7 +921,7 @@
         <v>''</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -704,7 +969,7 @@
         <v>::=</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -716,7 +981,7 @@
         <v>::=</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -728,7 +993,7 @@
         <v>::=</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -740,156 +1005,156 @@
         <v>::=</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -902,14 +1167,14 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,24 +1186,24 @@
         <v>::=</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -951,19 +1216,19 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -976,19 +1241,19 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1001,31 +1266,31 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1038,7 +1303,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1050,91 +1315,91 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>::=</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>::=</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1147,67 +1412,67 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B48" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1220,103 +1485,103 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>::=</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B57" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1329,7 +1594,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1341,62 +1606,655 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1" t="str">
         <f t="shared" ref="B59:B63" si="1">$I$2</f>
         <v>::=</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B60" s="1" t="str">
         <f t="shared" si="1"/>
         <v>::=</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1" t="str">
         <f t="shared" si="1"/>
         <v>::=</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1" t="str">
         <f t="shared" si="1"/>
         <v>::=</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1" t="str">
         <f t="shared" si="1"/>
         <v>::=</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L69" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X69" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA69" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB69" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE69" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="AF69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM69" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN69" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN71" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN73" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD75" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN75" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y83" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA83" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB85" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN85" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD87" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG89" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L93" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG93" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ93" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH95" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK95" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN97" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="99" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L99" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="P99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE99" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL99" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN99" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL101" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="103" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM103" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN105" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO107" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH109" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN109" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN111" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="113" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L113" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN113" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO113" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L115" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN115" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L117" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM117" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L119" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O119" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE119" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L121" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC121" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM123" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN123" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE125" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN125" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="127" spans="12:41" x14ac:dyDescent="0.25">
+      <c r="L127" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN127" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L129" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN129" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
